--- a/biology/Botanique/Germandrée_à_feuilles_de_romarin/Germandrée_à_feuilles_de_romarin.xlsx
+++ b/biology/Botanique/Germandrée_à_feuilles_de_romarin/Germandrée_à_feuilles_de_romarin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e_%C3%A0_feuilles_de_romarin</t>
+          <t>Germandrée_à_feuilles_de_romarin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teucrium creticum
 Teucrium creticum, la germandrée à feuilles de romarin, est une espèce végétale de la famille des Lamiaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e_%C3%A0_feuilles_de_romarin</t>
+          <t>Germandrée_à_feuilles_de_romarin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette germandrée est présente en Asie de l'ouest comme à Chypre, en Israël, au Liban, en Syrie et en Turquie. Elle a aussi été signalée plus à l'ouest comme sur l'île de Lampedusa.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e_%C3%A0_feuilles_de_romarin</t>
+          <t>Germandrée_à_feuilles_de_romarin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fut décrite en 1753 par Carl von Linné dans son ouvrage "Species Plantarum". En 1837, Constantine Samuel Rafinesque-Schmaltz proposa l'appellation Chamaedrys cretica, mais elle n'a pas été retenue.
 </t>
